--- a/Desktop/SYIKIN/271124 Digest/271124 SPL TITAN.xlsx
+++ b/Desktop/SYIKIN/271124 Digest/271124 SPL TITAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\SYIKIN\271124 Digest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E44C17-F060-4F2A-B929-2CD48625B65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C276759-6A9C-4888-9C63-FE5B158D9D20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,6 +1453,219 @@
     <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1534,181 +1747,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,72 +1787,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2296,10 +2296,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
-              <a:ext cx="1840542" cy="346787"/>
+              <a:off x="4531682" y="897178"/>
+              <a:ext cx="1840543" cy="346787"/>
               <a:chOff x="5019304" y="923328"/>
-              <a:chExt cx="2078183" cy="229184"/>
+              <a:chExt cx="2078185" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2412,7 +2412,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792686" y="927231"/>
+                <a:off x="6792688" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2882,10 +2882,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4741234" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019312" y="923328"/>
-              <a:chExt cx="2078171" cy="229184"/>
+              <a:off x="4741235" y="897178"/>
+              <a:ext cx="1840543" cy="346787"/>
+              <a:chOff x="5019313" y="923328"/>
+              <a:chExt cx="2078170" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2951,7 +2951,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019312" y="923328"/>
+                <a:off x="5019313" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3606,58 +3606,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="60" t="s">
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
@@ -3668,176 +3668,176 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="27">
         <v>0.51</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="106">
         <v>50.144999999999996</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="118" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="62" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="103">
         <v>2.5</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="66">
         <v>0.25</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="77"/>
+      <c r="H13" s="92"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="47">
         <v>5</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="66">
         <v>0.15</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3846,16 +3846,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="84" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="100"/>
       <c r="G17" s="20" t="s">
         <v>34</v>
       </c>
@@ -3864,70 +3864,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="86" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="86" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="86" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="98" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
     </row>
@@ -3969,54 +3969,54 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="69"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="97" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="106" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="107"/>
-      <c r="H28" s="108"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
@@ -4029,18 +4029,40 @@
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="D27:E27"/>
@@ -4057,35 +4079,13 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4280,58 +4280,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="122" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="124"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="60" t="s">
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
@@ -4342,176 +4342,176 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="27">
         <v>1.5049999999999999</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="106">
         <v>100.00700000000001</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="128" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="131"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="62" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="103">
         <v>7.5</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="66">
         <v>0.75</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="77"/>
+      <c r="H13" s="92"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="47">
         <v>15</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="66">
         <v>0.45</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -4520,16 +4520,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="84" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="100"/>
       <c r="G17" s="20" t="s">
         <v>34</v>
       </c>
@@ -4538,70 +4538,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="86" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="86" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="86" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="98" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
     </row>
@@ -4643,54 +4643,54 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="69"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="97" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="106" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="107"/>
-      <c r="H28" s="108"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="133" t="s">
@@ -4703,11 +4703,54 @@
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="A29:C29"/>
@@ -4718,49 +4761,6 @@
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4938,448 +4938,480 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="142" customWidth="1"/>
-    <col min="2" max="10" width="19" style="142"/>
-    <col min="11" max="11" width="19" style="145"/>
-    <col min="12" max="16384" width="19" style="142"/>
+    <col min="1" max="1" width="29.6640625" style="42" customWidth="1"/>
+    <col min="2" max="10" width="19" style="42"/>
+    <col min="11" max="11" width="19" style="45"/>
+    <col min="12" max="16384" width="19" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="138"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="141"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="144">
+      <c r="B2" s="44">
         <v>11.781000000000001</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144">
+      <c r="C2" s="44">
+        <v>61.847999999999999</v>
+      </c>
+      <c r="D2" s="44">
         <f>C2-B2</f>
-        <v>-11.781000000000001</v>
-      </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="141"/>
+        <v>50.067</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="144">
+      <c r="B3" s="44">
         <v>11.859</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144">
-        <f t="shared" ref="D3:D20" si="0">C3-B3</f>
-        <v>-11.859</v>
-      </c>
-      <c r="E3" s="146">
+      <c r="C3" s="44">
+        <v>61.851999999999997</v>
+      </c>
+      <c r="D3" s="44">
+        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
+        <v>49.992999999999995</v>
+      </c>
+      <c r="E3" s="46">
         <v>0.501</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="141"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="44">
         <v>11.84</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144">
+      <c r="C4" s="44">
+        <v>61.863999999999997</v>
+      </c>
+      <c r="D4" s="44">
         <f t="shared" si="0"/>
-        <v>-11.84</v>
-      </c>
-      <c r="E4" s="146">
+        <v>50.024000000000001</v>
+      </c>
+      <c r="E4" s="46">
         <v>0.501</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="141"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="144">
+      <c r="B5" s="44">
         <v>11.794</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144">
+      <c r="C5" s="44">
+        <v>61.865000000000002</v>
+      </c>
+      <c r="D5" s="44">
         <f t="shared" si="0"/>
-        <v>-11.794</v>
-      </c>
-      <c r="E5" s="146">
+        <v>50.070999999999998</v>
+      </c>
+      <c r="E5" s="46">
         <v>0.504</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="141"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="143">
+      <c r="A6" s="43">
         <v>2024110015</v>
       </c>
-      <c r="B6" s="144">
+      <c r="B6" s="44">
         <v>11.858000000000001</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144">
+      <c r="C6" s="44">
+        <v>61.878999999999998</v>
+      </c>
+      <c r="D6" s="44">
         <f t="shared" si="0"/>
-        <v>-11.858000000000001</v>
-      </c>
-      <c r="E6" s="146">
+        <v>50.021000000000001</v>
+      </c>
+      <c r="E6" s="46">
         <v>0.504</v>
       </c>
-      <c r="F6" s="140"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="143">
+      <c r="A7" s="43">
         <v>2024110016</v>
       </c>
-      <c r="B7" s="144">
+      <c r="B7" s="44">
         <v>11.789</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144">
+      <c r="C7" s="44">
+        <v>61.837000000000003</v>
+      </c>
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
-        <v>-11.789</v>
-      </c>
-      <c r="E7" s="146">
+        <v>50.048000000000002</v>
+      </c>
+      <c r="E7" s="46">
         <v>0.504</v>
       </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="141"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="143">
+      <c r="A8" s="43">
         <v>2024110019</v>
       </c>
-      <c r="B8" s="144">
+      <c r="B8" s="44">
         <v>11.786</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144">
+      <c r="C8" s="44">
+        <v>61.872</v>
+      </c>
+      <c r="D8" s="44">
         <f t="shared" si="0"/>
-        <v>-11.786</v>
-      </c>
-      <c r="E8" s="146">
+        <v>50.085999999999999</v>
+      </c>
+      <c r="E8" s="46">
         <v>0.50600000000000001</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="141"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="143">
+      <c r="A9" s="43">
         <v>2024110020</v>
       </c>
-      <c r="B9" s="144">
+      <c r="B9" s="44">
         <v>11.788</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144">
+      <c r="C9" s="44">
+        <v>61.866</v>
+      </c>
+      <c r="D9" s="44">
         <f t="shared" si="0"/>
-        <v>-11.788</v>
-      </c>
-      <c r="E9" s="146">
+        <v>50.078000000000003</v>
+      </c>
+      <c r="E9" s="46">
         <v>0.504</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="143">
+      <c r="A10" s="43">
         <v>2024110021</v>
       </c>
-      <c r="B10" s="144">
+      <c r="B10" s="44">
         <v>11.794</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144">
+      <c r="C10" s="44">
+        <v>61.83</v>
+      </c>
+      <c r="D10" s="44">
         <f t="shared" si="0"/>
-        <v>-11.794</v>
-      </c>
-      <c r="E10" s="146">
+        <v>50.036000000000001</v>
+      </c>
+      <c r="E10" s="46">
         <v>0.502</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="141"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="143">
+      <c r="A11" s="43">
         <v>2024110022</v>
       </c>
-      <c r="B11" s="144">
+      <c r="B11" s="44">
         <v>11.798</v>
       </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144">
+      <c r="C11" s="44">
+        <v>61.863</v>
+      </c>
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
-        <v>-11.798</v>
-      </c>
-      <c r="E11" s="146">
+        <v>50.064999999999998</v>
+      </c>
+      <c r="E11" s="46">
         <v>0.504</v>
       </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="141"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="143">
+      <c r="A12" s="43">
         <v>2024110026</v>
       </c>
-      <c r="B12" s="144">
+      <c r="B12" s="44">
         <v>11.8</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144">
+      <c r="C12" s="44">
+        <v>61.854999999999997</v>
+      </c>
+      <c r="D12" s="44">
         <f t="shared" si="0"/>
-        <v>-11.8</v>
-      </c>
-      <c r="E12" s="146">
+        <v>50.054999999999993</v>
+      </c>
+      <c r="E12" s="46">
         <v>0.503</v>
       </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="141"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="143">
+      <c r="A13" s="43">
         <v>2024110081</v>
       </c>
-      <c r="B13" s="144">
+      <c r="B13" s="44">
         <v>11.829000000000001</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144">
+      <c r="C13" s="44">
+        <v>61.866</v>
+      </c>
+      <c r="D13" s="44">
         <f t="shared" si="0"/>
-        <v>-11.829000000000001</v>
-      </c>
-      <c r="E13" s="146">
+        <v>50.036999999999999</v>
+      </c>
+      <c r="E13" s="46">
         <v>0.505</v>
       </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="141"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="143">
+      <c r="A14" s="43">
         <v>2024110082</v>
       </c>
-      <c r="B14" s="144">
+      <c r="B14" s="44">
         <v>11.85</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144">
+      <c r="C14" s="44">
+        <v>61.85</v>
+      </c>
+      <c r="D14" s="44">
         <f t="shared" si="0"/>
-        <v>-11.85</v>
-      </c>
-      <c r="E14" s="146">
+        <v>50</v>
+      </c>
+      <c r="E14" s="46">
         <v>0.50800000000000001</v>
       </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="143">
+      <c r="A15" s="43">
         <v>2024110083</v>
       </c>
-      <c r="B15" s="144">
+      <c r="B15" s="44">
         <v>11.851000000000001</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144">
+      <c r="C15" s="44">
+        <v>61.866999999999997</v>
+      </c>
+      <c r="D15" s="44">
         <f t="shared" si="0"/>
-        <v>-11.851000000000001</v>
-      </c>
-      <c r="E15" s="146">
+        <v>50.015999999999998</v>
+      </c>
+      <c r="E15" s="46">
         <v>0.50900000000000001</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="143">
+      <c r="A16" s="43">
         <v>2024110084</v>
       </c>
-      <c r="B16" s="144">
+      <c r="B16" s="44">
         <v>11.835000000000001</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144">
+      <c r="C16" s="44">
+        <v>61.826000000000001</v>
+      </c>
+      <c r="D16" s="44">
         <f t="shared" si="0"/>
-        <v>-11.835000000000001</v>
-      </c>
-      <c r="E16" s="146">
+        <v>49.991</v>
+      </c>
+      <c r="E16" s="46">
         <v>0.501</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="141"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="143">
+      <c r="A17" s="43">
         <v>2024110085</v>
       </c>
-      <c r="B17" s="144">
+      <c r="B17" s="44">
         <v>11.778</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144">
+      <c r="C17" s="44">
+        <v>61.875999999999998</v>
+      </c>
+      <c r="D17" s="44">
         <f t="shared" si="0"/>
-        <v>-11.778</v>
-      </c>
-      <c r="E17" s="146">
+        <v>50.097999999999999</v>
+      </c>
+      <c r="E17" s="46">
         <v>0.503</v>
       </c>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="141"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="143"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="141"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="141"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="141"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
